--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/10/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/10/seed1/result_data_KNN.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.15</v>
+        <v>-20.588</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.17</v>
+        <v>-20.905</v>
       </c>
       <c r="B7" t="n">
-        <v>6.844000000000001</v>
+        <v>6.511999999999999</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.638</v>
+        <v>4.785</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.704</v>
+        <v>-21.861</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.794</v>
+        <v>-8.598000000000001</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.972</v>
+        <v>-8.016000000000002</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.48</v>
+        <v>9.000000000000002</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -805,7 +805,7 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>7.292</v>
+        <v>7.034000000000001</v>
       </c>
       <c r="C22" t="n">
         <v>-15.07</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>7.696</v>
+        <v>7.359999999999999</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.728</v>
+        <v>-21.85</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.214</v>
+        <v>-21.586</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.912</v>
+        <v>-21.721</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1009,7 +1009,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>7.188</v>
+        <v>7.492999999999999</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -1018,7 +1018,7 @@
         <v>-7.27</v>
       </c>
       <c r="E34" t="n">
-        <v>17.152</v>
+        <v>16.836</v>
       </c>
     </row>
     <row r="35">
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.607999999999999</v>
+        <v>-8.178000000000001</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.308</v>
+        <v>-20.452</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1162,7 +1162,7 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>5.29</v>
+        <v>5.943</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.132</v>
+        <v>17.135</v>
       </c>
     </row>
     <row r="44">
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.896</v>
+        <v>5.672000000000001</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1219,7 +1219,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.428000000000001</v>
+        <v>-7.995</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.122</v>
+        <v>17.393</v>
       </c>
     </row>
     <row r="49">
@@ -1281,13 +1281,13 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>5.380000000000001</v>
+        <v>5.095000000000001</v>
       </c>
       <c r="C50" t="n">
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.228</v>
+        <v>-8.147000000000002</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>6.57</v>
+        <v>6.464</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-21.716</v>
+        <v>-21.684</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.106</v>
+        <v>-22.275</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.424</v>
+        <v>-21.311</v>
       </c>
       <c r="B66" t="n">
-        <v>6.074</v>
+        <v>5.981999999999999</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>6.108</v>
+        <v>5.571</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.58</v>
+        <v>17.781</v>
       </c>
     </row>
     <row r="71">
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>16.466</v>
+        <v>16.515</v>
       </c>
     </row>
     <row r="74">
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>5.914</v>
+        <v>5.656000000000001</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>6.164</v>
+        <v>5.453000000000001</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.732</v>
+        <v>16.465</v>
       </c>
     </row>
     <row r="88">
@@ -1995,7 +1995,7 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>4.706</v>
+        <v>5.247000000000001</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>17.948</v>
+        <v>17.916</v>
       </c>
     </row>
     <row r="93">
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-8.186</v>
+        <v>-7.524000000000001</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2080,13 +2080,13 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>4.362</v>
+        <v>5.491</v>
       </c>
       <c r="C97" t="n">
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.542</v>
+        <v>-8.333</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.834</v>
+        <v>-21.927</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.904</v>
+        <v>16.635</v>
       </c>
     </row>
     <row r="102">
